--- a/Crawling/crawling_data/day_genie/day_genie_20220117.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220117.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="231">
   <si>
     <t>날짜</t>
   </si>
@@ -154,8 +154,7 @@
     <t>Butter</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>밤하늘의 별을 (2020)</t>
@@ -230,8 +229,7 @@
     <t>사이렌 Remix (Feat. UNEDUCATED KID &amp; Paul Blanco)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>Still I Love You</t>
@@ -601,9 +599,6 @@
   </si>
   <si>
     <t>그 해 우리는 OST Part.8</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>세 번째 '고백'</t>
@@ -1787,7 +1782,7 @@
         <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1821,7 +1816,7 @@
         <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1855,7 +1850,7 @@
         <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1872,7 +1867,7 @@
         <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1889,7 +1884,7 @@
         <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1906,7 +1901,7 @@
         <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1940,7 +1935,7 @@
         <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1957,7 +1952,7 @@
         <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1974,7 +1969,7 @@
         <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2008,7 +2003,7 @@
         <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2025,7 +2020,7 @@
         <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2059,7 +2054,7 @@
         <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2076,7 +2071,7 @@
         <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2093,7 +2088,7 @@
         <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2127,7 +2122,7 @@
         <v>147</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2144,7 +2139,7 @@
         <v>129</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2161,7 +2156,7 @@
         <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2178,7 +2173,7 @@
         <v>112</v>
       </c>
       <c r="E65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2195,7 +2190,7 @@
         <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2212,7 +2207,7 @@
         <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2246,7 +2241,7 @@
         <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2263,7 +2258,7 @@
         <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2280,7 +2275,7 @@
         <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2297,7 +2292,7 @@
         <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2331,7 +2326,7 @@
         <v>154</v>
       </c>
       <c r="E74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2348,7 +2343,7 @@
         <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2382,7 +2377,7 @@
         <v>157</v>
       </c>
       <c r="E77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2433,7 +2428,7 @@
         <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2467,7 +2462,7 @@
         <v>159</v>
       </c>
       <c r="E82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2484,7 +2479,7 @@
         <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2535,7 +2530,7 @@
         <v>154</v>
       </c>
       <c r="E86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2603,7 +2598,7 @@
         <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2637,7 +2632,7 @@
         <v>168</v>
       </c>
       <c r="E92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2671,7 +2666,7 @@
         <v>135</v>
       </c>
       <c r="E94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2688,7 +2683,7 @@
         <v>143</v>
       </c>
       <c r="E95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2722,7 +2717,7 @@
         <v>170</v>
       </c>
       <c r="E97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2739,7 +2734,7 @@
         <v>171</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2790,7 +2785,7 @@
         <v>173</v>
       </c>
       <c r="E101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
